--- a/平成31年度/01_参加申込関連/03.09-10_長岡市長杯 第19回グローイングカップミニバスケットボール大会/2019Growing cup組合せ(再訂正).xlsx
+++ b/平成31年度/01_参加申込関連/03.09-10_長岡市長杯 第19回グローイングカップミニバスケットボール大会/2019Growing cup組合せ(再訂正).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homepage\長岡ミニ連ホームページ\大会要項・申込み\2018\15 グローイングカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\01_参加申込関連\03.09-10_長岡市長杯 第19回グローイングカップミニバスケットボール大会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DB057-C216-43B3-AD80-AA3D5677B98D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="60" windowWidth="25335" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="60" windowWidth="25335" windowHeight="15420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2019予選ﾘｰｸﾞ (男女2会場4面)" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2019ﾄｰﾅﾒﾝﾄ (男女3会場6面 )'!$A$1:$K$109</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2019予選ﾘｰｸﾞ (男女2会場4面)'!$A$1:$M$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2019予選ﾘｰｸﾞ (男女2会場4面)'!$A$1:$M$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1541,7 +1540,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2029,20 +2028,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2056,12 +2082,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2071,35 +2091,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8211,14 +8210,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8263,30 +8262,30 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="66" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66" t="s">
+      <c r="H5" s="78"/>
+      <c r="I5" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="66"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -8380,34 +8379,34 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="79"/>
+      <c r="E14" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66" t="s">
+      <c r="H14" s="78"/>
+      <c r="I14" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66" t="s">
+      <c r="J14" s="78"/>
+      <c r="K14" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="66"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G16" s="24"/>
@@ -8430,14 +8429,14 @@
       <c r="G19" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="69" t="s">
+      <c r="I19" s="89"/>
+      <c r="J19" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="70"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="30"/>
       <c r="M19" s="39"/>
       <c r="N19" s="35"/>
@@ -8447,14 +8446,14 @@
       <c r="R19" s="36"/>
     </row>
     <row r="20" spans="1:18" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="66"/>
+      <c r="D20" s="78"/>
       <c r="F20" s="20" t="s">
         <v>65</v>
       </c>
@@ -8494,14 +8493,14 @@
       <c r="G21" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="71" t="s">
+      <c r="I21" s="83"/>
+      <c r="J21" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="72"/>
+      <c r="K21" s="81"/>
       <c r="M21" s="40"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
@@ -8518,14 +8517,14 @@
       <c r="G22" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="71" t="s">
+      <c r="I22" s="81"/>
+      <c r="J22" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="72"/>
+      <c r="K22" s="81"/>
       <c r="L22" s="44"/>
       <c r="M22" s="39"/>
       <c r="N22" s="37"/>
@@ -8564,14 +8563,14 @@
       <c r="G24" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="77" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="K24" s="78"/>
+      <c r="K24" s="85"/>
       <c r="M24" s="42"/>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
@@ -8588,14 +8587,14 @@
       <c r="G25" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="77" t="s">
+      <c r="I25" s="81"/>
+      <c r="J25" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="85"/>
       <c r="M25" s="41"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
@@ -8612,14 +8611,14 @@
       <c r="G26" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="72"/>
-      <c r="J26" s="71" t="s">
+      <c r="I26" s="81"/>
+      <c r="J26" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="72"/>
+      <c r="K26" s="81"/>
       <c r="M26" s="41"/>
       <c r="N26" s="38"/>
       <c r="O26" s="30"/>
@@ -8636,14 +8635,14 @@
       <c r="G27" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="H27" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="71" t="s">
+      <c r="I27" s="81"/>
+      <c r="J27" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="72"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="40"/>
       <c r="M27" s="41"/>
       <c r="N27" s="30"/>
@@ -8666,41 +8665,41 @@
       <c r="G28" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="71" t="s">
+      <c r="I28" s="81"/>
+      <c r="J28" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="72"/>
+      <c r="K28" s="81"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="78"/>
       <c r="F29" s="20" t="s">
         <v>77</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="71" t="s">
+      <c r="I29" s="81"/>
+      <c r="J29" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="72"/>
+      <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="28"/>
@@ -8727,8 +8726,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -8779,30 +8778,30 @@
       <c r="F39" s="51"/>
     </row>
     <row r="40" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75" t="s">
+      <c r="B40" s="67"/>
+      <c r="C40" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="76"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="50" t="s">
         <v>142</v>
       </c>
       <c r="F40" s="52"/>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="76"/>
-      <c r="I40" s="75" t="s">
+      <c r="H40" s="68"/>
+      <c r="I40" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75" t="s">
+      <c r="J40" s="67"/>
+      <c r="K40" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="L40" s="75"/>
+      <c r="L40" s="67"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
     </row>
@@ -8898,40 +8897,40 @@
       </c>
     </row>
     <row r="49" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75" t="s">
+      <c r="B49" s="67"/>
+      <c r="C49" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75" t="s">
+      <c r="D49" s="67"/>
+      <c r="E49" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="75" t="s">
+      <c r="F49" s="68"/>
+      <c r="G49" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75" t="s">
+      <c r="H49" s="67"/>
+      <c r="I49" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75" t="s">
+      <c r="J49" s="67"/>
+      <c r="K49" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="L49" s="76"/>
+      <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
     </row>
     <row r="53" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
     </row>
     <row r="54" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="51" t="s">
@@ -8948,8 +8947,8 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
     </row>
     <row r="55" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="51"/>
@@ -8957,26 +8956,26 @@
       <c r="G55" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="88" t="s">
+      <c r="H55" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="I55" s="89"/>
-      <c r="J55" s="88" t="s">
+      <c r="I55" s="70"/>
+      <c r="J55" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="K55" s="89"/>
-      <c r="P55" s="85"/>
-      <c r="Q55" s="85"/>
+      <c r="K55" s="70"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="66"/>
     </row>
     <row r="56" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75" t="s">
+      <c r="B56" s="67"/>
+      <c r="C56" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="75"/>
+      <c r="D56" s="67"/>
       <c r="F56" s="20" t="s">
         <v>65</v>
       </c>
@@ -8995,8 +8994,8 @@
       <c r="K56" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="85"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="66"/>
     </row>
     <row r="57" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="50">
@@ -9011,16 +9010,16 @@
       <c r="G57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="87"/>
-      <c r="J57" s="81" t="s">
+      <c r="I57" s="73"/>
+      <c r="J57" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="K57" s="82"/>
-      <c r="P57" s="85"/>
-      <c r="Q57" s="85"/>
+      <c r="K57" s="77"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="66"/>
     </row>
     <row r="58" spans="1:17" s="50" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="53"/>
@@ -9031,16 +9030,16 @@
       <c r="G58" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H58" s="83" t="s">
+      <c r="H58" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="I58" s="84"/>
-      <c r="J58" s="83" t="s">
+      <c r="I58" s="75"/>
+      <c r="J58" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="K58" s="84"/>
-      <c r="P58" s="85"/>
-      <c r="Q58" s="85"/>
+      <c r="K58" s="75"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
     </row>
     <row r="59" spans="1:17" s="50" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B59" s="55"/>
@@ -9055,8 +9054,8 @@
       <c r="I59" s="63"/>
       <c r="J59" s="63"/>
       <c r="K59" s="64"/>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="85"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
     </row>
     <row r="60" spans="1:17" s="50" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B60" s="55"/>
@@ -9067,16 +9066,16 @@
       <c r="G60" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="83" t="s">
+      <c r="H60" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="I60" s="84"/>
-      <c r="J60" s="81" t="s">
+      <c r="I60" s="75"/>
+      <c r="J60" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="K60" s="82"/>
-      <c r="P60" s="85"/>
-      <c r="Q60" s="85"/>
+      <c r="K60" s="77"/>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="66"/>
     </row>
     <row r="61" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="55"/>
@@ -9087,16 +9086,16 @@
       <c r="G61" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H61" s="83" t="s">
+      <c r="H61" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="I61" s="84"/>
-      <c r="J61" s="81" t="s">
+      <c r="I61" s="75"/>
+      <c r="J61" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="K61" s="82"/>
-      <c r="P61" s="85"/>
-      <c r="Q61" s="85"/>
+      <c r="K61" s="77"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
     </row>
     <row r="62" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="55"/>
@@ -9107,16 +9106,16 @@
       <c r="G62" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H62" s="83" t="s">
+      <c r="H62" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="I62" s="84"/>
-      <c r="J62" s="83" t="s">
+      <c r="I62" s="75"/>
+      <c r="J62" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K62" s="84"/>
-      <c r="P62" s="85"/>
-      <c r="Q62" s="85"/>
+      <c r="K62" s="75"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="66"/>
     </row>
     <row r="63" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="58"/>
@@ -9127,16 +9126,16 @@
       <c r="G63" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H63" s="83" t="s">
+      <c r="H63" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="I63" s="84"/>
-      <c r="J63" s="83" t="s">
+      <c r="I63" s="75"/>
+      <c r="J63" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="K63" s="84"/>
-      <c r="P63" s="85"/>
-      <c r="Q63" s="85"/>
+      <c r="K63" s="75"/>
+      <c r="P63" s="66"/>
+      <c r="Q63" s="66"/>
     </row>
     <row r="64" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="50">
@@ -9152,42 +9151,42 @@
       <c r="G64" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H64" s="83" t="s">
+      <c r="H64" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="I64" s="84"/>
-      <c r="J64" s="83" t="s">
+      <c r="I64" s="75"/>
+      <c r="J64" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="K64" s="84"/>
-      <c r="P64" s="85"/>
-      <c r="Q64" s="85"/>
+      <c r="K64" s="75"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
     </row>
     <row r="65" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75" t="s">
+      <c r="B65" s="67"/>
+      <c r="C65" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="75"/>
+      <c r="D65" s="67"/>
       <c r="F65" s="20" t="s">
         <v>77</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H65" s="83" t="s">
+      <c r="H65" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="I65" s="84"/>
-      <c r="J65" s="83" t="s">
+      <c r="I65" s="75"/>
+      <c r="J65" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="K65" s="84"/>
-      <c r="P65" s="85"/>
-      <c r="Q65" s="85"/>
+      <c r="K65" s="75"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
     </row>
     <row r="66" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F66" s="30" t="s">
@@ -9223,18 +9222,18 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A76" s="66"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="67"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="79"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C80" s="2"/>
@@ -9247,54 +9246,54 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A85" s="66"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="66"/>
+      <c r="A85" s="78"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="80"/>
-      <c r="K90" s="80"/>
-      <c r="L90" s="80"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="71"/>
+      <c r="L90" s="71"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A91" s="66"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
+      <c r="A91" s="78"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
       <c r="H91" s="25"/>
-      <c r="I91" s="80"/>
-      <c r="J91" s="80"/>
-      <c r="K91" s="80"/>
-      <c r="L91" s="80"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="71"/>
+      <c r="L91" s="71"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H92" s="25"/>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="71"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F93" s="8"/>
       <c r="H93" s="25"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="80"/>
-      <c r="L93" s="80"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F94" s="8"/>
@@ -9303,50 +9302,50 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C95" s="2"/>
       <c r="H95" s="25"/>
-      <c r="I95" s="80"/>
-      <c r="J95" s="80"/>
-      <c r="K95" s="80"/>
-      <c r="L95" s="80"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H96" s="25"/>
-      <c r="I96" s="80"/>
-      <c r="J96" s="80"/>
-      <c r="K96" s="80"/>
-      <c r="L96" s="80"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H97" s="25"/>
-      <c r="I97" s="80"/>
-      <c r="J97" s="80"/>
-      <c r="K97" s="80"/>
-      <c r="L97" s="80"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="H98" s="25"/>
-      <c r="I98" s="80"/>
-      <c r="J98" s="80"/>
-      <c r="K98" s="80"/>
-      <c r="L98" s="80"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="80"/>
-      <c r="J99" s="80"/>
-      <c r="K99" s="80"/>
-      <c r="L99" s="80"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A100" s="66"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
+      <c r="A100" s="78"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="80"/>
-      <c r="J100" s="80"/>
-      <c r="K100" s="80"/>
-      <c r="L100" s="80"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="28"/>
@@ -9396,6 +9395,101 @@
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
     <mergeCell ref="P64:Q64"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="P57:Q57"/>
@@ -9418,103 +9512,8 @@
     <mergeCell ref="P55:Q55"/>
     <mergeCell ref="P56:Q56"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.73" right="0.69" top="0.89" bottom="1" header="0.27" footer="0.51200000000000001"/>
@@ -9524,15 +9523,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9573,20 +9570,20 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E5" s="80">
+      <c r="E5" s="71">
         <v>1</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="1"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="66"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="78"/>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9596,20 +9593,20 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="80">
+      <c r="E8" s="71">
         <v>2</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="66"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="25" t="s">
@@ -9620,19 +9617,19 @@
       </c>
     </row>
     <row r="11" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="80">
+      <c r="E11" s="71">
         <v>3</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="66"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="78"/>
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9642,45 +9639,45 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="80">
+      <c r="E14" s="71">
         <v>4</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="66"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="78"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71">
         <v>5</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="66"/>
+      <c r="G16" s="78"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="66"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="78"/>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9690,21 +9687,21 @@
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="80">
+      <c r="E19" s="71">
         <v>6</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="66"/>
+      <c r="G19" s="78"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="25"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="66"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="25" t="s">
@@ -9715,19 +9712,19 @@
       </c>
     </row>
     <row r="22" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="80">
+      <c r="E22" s="71">
         <v>7</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="66"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="66"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="78"/>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9737,20 +9734,20 @@
       <c r="I24" s="13"/>
     </row>
     <row r="25" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="80">
+      <c r="E25" s="71">
         <v>8</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="66"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="66"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="3:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E27" s="25"/>
@@ -9786,20 +9783,20 @@
       <c r="K30" s="90"/>
     </row>
     <row r="31" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="80">
+      <c r="E31" s="71">
         <v>9</v>
       </c>
-      <c r="F31" s="80" t="s">
+      <c r="F31" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="66"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="1"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="66"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="78"/>
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9809,20 +9806,20 @@
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="80">
+      <c r="E34" s="71">
         <v>10</v>
       </c>
-      <c r="F34" s="80" t="s">
+      <c r="F34" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="66"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="14"/>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="66"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="78"/>
     </row>
     <row r="36" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="25" t="s">
@@ -9833,19 +9830,19 @@
       </c>
     </row>
     <row r="37" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="80">
+      <c r="E37" s="71">
         <v>11</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="F37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="66"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="66"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="78"/>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9855,36 +9852,36 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="80">
+      <c r="E40" s="71">
         <v>12</v>
       </c>
-      <c r="F40" s="80" t="s">
+      <c r="F40" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="66"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="14"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="66"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="78"/>
     </row>
     <row r="42" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="80">
+      <c r="E42" s="71">
         <v>13</v>
       </c>
-      <c r="F42" s="80" t="s">
+      <c r="F42" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="66"/>
+      <c r="G42" s="78"/>
       <c r="H42" s="1"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="66"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="78"/>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9894,21 +9891,21 @@
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="80">
+      <c r="E45" s="71">
         <v>14</v>
       </c>
-      <c r="F45" s="80" t="s">
+      <c r="F45" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="66"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="14"/>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="25"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="66"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="25" t="s">
@@ -9919,19 +9916,19 @@
       </c>
     </row>
     <row r="48" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="80">
+      <c r="E48" s="71">
         <v>15</v>
       </c>
-      <c r="F48" s="80" t="s">
+      <c r="F48" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="66"/>
+      <c r="G48" s="78"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="66"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="78"/>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9941,20 +9938,20 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="80">
+      <c r="E51" s="71">
         <v>16</v>
       </c>
-      <c r="F51" s="80" t="s">
+      <c r="F51" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="66"/>
+      <c r="G51" s="78"/>
       <c r="H51" s="14"/>
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="66"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="25"/>
@@ -9986,20 +9983,20 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E59" s="80">
+      <c r="E59" s="71">
         <v>1</v>
       </c>
-      <c r="F59" s="80" t="s">
+      <c r="F59" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="66"/>
+      <c r="G59" s="78"/>
       <c r="H59" s="1"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="66"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="78"/>
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10009,20 +10006,20 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="80">
+      <c r="E62" s="71">
         <v>2</v>
       </c>
-      <c r="F62" s="80" t="s">
+      <c r="F62" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="66"/>
+      <c r="G62" s="78"/>
       <c r="H62" s="14"/>
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="66"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="78"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="25" t="s">
@@ -10033,19 +10030,19 @@
       </c>
     </row>
     <row r="65" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E65" s="80">
+      <c r="E65" s="71">
         <v>3</v>
       </c>
-      <c r="F65" s="80" t="s">
+      <c r="F65" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="66"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="66"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="78"/>
       <c r="I66" s="13"/>
     </row>
     <row r="67" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10055,45 +10052,45 @@
       <c r="I67" s="13"/>
     </row>
     <row r="68" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="80">
+      <c r="E68" s="71">
         <v>4</v>
       </c>
-      <c r="F68" s="80" t="s">
+      <c r="F68" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="66"/>
+      <c r="G68" s="78"/>
       <c r="H68" s="14"/>
       <c r="I68" s="13"/>
     </row>
     <row r="69" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="66"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80" t="s">
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="78"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="70" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80">
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71">
         <v>5</v>
       </c>
-      <c r="F70" s="80" t="s">
+      <c r="F70" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="66"/>
+      <c r="G70" s="78"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
     </row>
     <row r="71" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="66"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="78"/>
       <c r="I71" s="13"/>
     </row>
     <row r="72" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10103,21 +10100,21 @@
       <c r="I72" s="13"/>
     </row>
     <row r="73" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="80">
+      <c r="E73" s="71">
         <v>6</v>
       </c>
-      <c r="F73" s="80" t="s">
+      <c r="F73" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="66"/>
+      <c r="G73" s="78"/>
       <c r="H73" s="14"/>
       <c r="I73" s="13"/>
     </row>
     <row r="74" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D74" s="25"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="66"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="78"/>
     </row>
     <row r="75" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="25" t="s">
@@ -10128,19 +10125,19 @@
       </c>
     </row>
     <row r="76" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="80">
+      <c r="E76" s="71">
         <v>7</v>
       </c>
-      <c r="F76" s="80" t="s">
+      <c r="F76" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="66"/>
+      <c r="G76" s="78"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="66"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="78"/>
       <c r="I77" s="13"/>
     </row>
     <row r="78" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10150,39 +10147,39 @@
       <c r="I78" s="13"/>
     </row>
     <row r="79" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E79" s="80">
+      <c r="E79" s="71">
         <v>8</v>
       </c>
-      <c r="F79" s="80" t="s">
+      <c r="F79" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="66"/>
+      <c r="G79" s="78"/>
       <c r="H79" s="14"/>
       <c r="I79" s="13"/>
     </row>
     <row r="80" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E80" s="80"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="66"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="78"/>
     </row>
     <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="80">
+      <c r="E82" s="71">
         <v>9</v>
       </c>
-      <c r="F82" s="80" t="s">
+      <c r="F82" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G82" s="66"/>
+      <c r="G82" s="78"/>
       <c r="H82" s="1"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="66"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="78"/>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10192,20 +10189,20 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="80">
+      <c r="E85" s="71">
         <v>10</v>
       </c>
-      <c r="F85" s="80" t="s">
+      <c r="F85" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="66"/>
+      <c r="G85" s="78"/>
       <c r="H85" s="14"/>
       <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="66"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="78"/>
     </row>
     <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="25" t="s">
@@ -10216,19 +10213,19 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="80">
+      <c r="E88" s="71">
         <v>11</v>
       </c>
-      <c r="F88" s="80" t="s">
+      <c r="F88" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G88" s="66"/>
+      <c r="G88" s="78"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="66"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="78"/>
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10238,20 +10235,20 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E91" s="80">
+      <c r="E91" s="71">
         <v>12</v>
       </c>
-      <c r="F91" s="80" t="s">
+      <c r="F91" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G91" s="66"/>
+      <c r="G91" s="78"/>
       <c r="H91" s="14"/>
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="66"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="78"/>
     </row>
     <row r="93" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
@@ -10306,20 +10303,20 @@
       <c r="J97" s="48"/>
     </row>
     <row r="98" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="80">
+      <c r="E98" s="71">
         <v>13</v>
       </c>
-      <c r="F98" s="80" t="s">
+      <c r="F98" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="G98" s="66"/>
+      <c r="G98" s="78"/>
       <c r="H98" s="1"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="66"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="78"/>
       <c r="I99" s="13"/>
     </row>
     <row r="100" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10329,21 +10326,21 @@
       <c r="I100" s="13"/>
     </row>
     <row r="101" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="80">
+      <c r="E101" s="71">
         <v>14</v>
       </c>
-      <c r="F101" s="80" t="s">
+      <c r="F101" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G101" s="66"/>
+      <c r="G101" s="78"/>
       <c r="H101" s="14"/>
       <c r="I101" s="13"/>
     </row>
     <row r="102" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="25"/>
-      <c r="E102" s="80"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="66"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="78"/>
     </row>
     <row r="103" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="25" t="s">
@@ -10354,19 +10351,19 @@
       </c>
     </row>
     <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="80">
+      <c r="E104" s="71">
         <v>15</v>
       </c>
-      <c r="F104" s="80" t="s">
+      <c r="F104" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G104" s="66"/>
+      <c r="G104" s="78"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="66"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="78"/>
       <c r="I105" s="13"/>
     </row>
     <row r="106" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10376,20 +10373,20 @@
       <c r="I106" s="13"/>
     </row>
     <row r="107" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E107" s="80">
+      <c r="E107" s="71">
         <v>16</v>
       </c>
-      <c r="F107" s="80" t="s">
+      <c r="F107" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G107" s="66"/>
+      <c r="G107" s="78"/>
       <c r="H107" s="14"/>
       <c r="I107" s="13"/>
     </row>
     <row r="108" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="80"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="66"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="78"/>
     </row>
     <row r="110" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="25"/>
@@ -10452,26 +10449,26 @@
     <row r="166" spans="5:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" spans="5:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="169" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E169" s="80"/>
-      <c r="F169" s="80"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
       <c r="G169" s="25"/>
     </row>
     <row r="170" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E170" s="80"/>
-      <c r="F170" s="80"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
       <c r="G170" s="25"/>
     </row>
     <row r="171" spans="5:9" x14ac:dyDescent="0.15">
       <c r="H171" s="7"/>
     </row>
     <row r="172" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E172" s="80"/>
-      <c r="F172" s="80"/>
+      <c r="E172" s="71"/>
+      <c r="F172" s="71"/>
       <c r="G172" s="25"/>
     </row>
     <row r="173" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
+      <c r="E173" s="71"/>
+      <c r="F173" s="71"/>
       <c r="G173" s="25"/>
     </row>
     <row r="174" spans="5:9" x14ac:dyDescent="0.15">
@@ -10479,15 +10476,83 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="F98:F99"/>
     <mergeCell ref="E101:E102"/>
@@ -10512,83 +10577,15 @@
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="F79:F80"/>
     <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="G88:G89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
